--- a/ReadMe.xlsx
+++ b/ReadMe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzhan50/projects/public-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B26698E-128A-7A4E-9C7F-B93648473224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E940B5D9-81D5-2244-B408-BBD78C2428EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="1420" windowWidth="28040" windowHeight="17440" xr2:uid="{8256766D-D95C-BC49-BB42-44E70E964C3B}"/>
+    <workbookView xWindow="13540" yWindow="9220" windowWidth="28040" windowHeight="17440" xr2:uid="{8256766D-D95C-BC49-BB42-44E70E964C3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>file source</t>
   </si>
@@ -66,21 +66,6 @@
     <t>IEDB</t>
   </si>
   <si>
-    <t>A_prepped.csv</t>
-  </si>
-  <si>
-    <t>B_prepped.csv</t>
-  </si>
-  <si>
-    <t>DQB1_prepped.csv</t>
-  </si>
-  <si>
-    <t>DRB1_prepped.csv</t>
-  </si>
-  <si>
-    <t>DRB345_prepped.csv</t>
-  </si>
-  <si>
     <t>IPD_IMGT-HLA</t>
   </si>
   <si>
@@ -88,6 +73,63 @@
   </si>
   <si>
     <t>reference file name</t>
+  </si>
+  <si>
+    <t>human_A_prepped.csv</t>
+  </si>
+  <si>
+    <t>human_B_prepped.csv</t>
+  </si>
+  <si>
+    <t>human_DPA1/2_prepped.csv</t>
+  </si>
+  <si>
+    <t>human_DPB1/2_prepped.csv</t>
+  </si>
+  <si>
+    <t>human_DQA1/2_prepped.csv</t>
+  </si>
+  <si>
+    <t>human_DRA_prepped.csv</t>
+  </si>
+  <si>
+    <t>human_DRB1_prepped.csv</t>
+  </si>
+  <si>
+    <t>human_DRB345_prepped.csv</t>
+  </si>
+  <si>
+    <t>human_all.csv</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>IEDB reference file of A locus</t>
+  </si>
+  <si>
+    <t>IEDB reference file of B locus</t>
+  </si>
+  <si>
+    <t>IEDB reference file of DPA locus</t>
+  </si>
+  <si>
+    <t>IEDB reference file of DPB locus</t>
+  </si>
+  <si>
+    <t>IEDB reference file of DQA locus</t>
+  </si>
+  <si>
+    <t>IEDB reference file of DRA locus</t>
+  </si>
+  <si>
+    <t>IEDB reference file of DRB1 locus</t>
+  </si>
+  <si>
+    <t>IEDB reference file of DRB345 locus</t>
+  </si>
+  <si>
+    <t>IEDB reference file of ALL loci ( unique records only)</t>
   </si>
 </sst>
 </file>
@@ -459,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D58D4F-E4E0-7B4B-B6D6-376651DC16AF}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,12 +514,12 @@
     <col min="4" max="4" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -485,8 +527,11 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -500,7 +545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -514,7 +559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -528,74 +573,157 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -608,6 +736,10 @@
     <hyperlink ref="C7" r:id="rId6" xr:uid="{88D7A196-C1F4-814E-8538-10A36EAA4CF3}"/>
     <hyperlink ref="C8" r:id="rId7" xr:uid="{7B2020E8-510A-CC4D-9895-4EBAC00C9C76}"/>
     <hyperlink ref="C9" r:id="rId8" xr:uid="{25C1B3CE-EBC2-174E-A1DF-B9448BD0378E}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{89038A69-E35A-F64A-A28D-DC1AD151A70A}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{83E13B5B-B934-EB4B-97C9-D52EC0EFC17E}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{BFA1644F-0DBF-564F-9DC2-871AA8B3D0B2}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{88934BD1-FDC2-7045-8057-3ACE07545A1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ReadMe.xlsx
+++ b/ReadMe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzhan50/projects/public-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E940B5D9-81D5-2244-B408-BBD78C2428EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634FE4C1-2A58-C146-922C-CCD8741517E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13540" yWindow="9220" windowWidth="28040" windowHeight="17440" xr2:uid="{8256766D-D95C-BC49-BB42-44E70E964C3B}"/>
+    <workbookView xWindow="6420" yWindow="2820" windowWidth="28040" windowHeight="17440" xr2:uid="{8256766D-D95C-BC49-BB42-44E70E964C3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>file source</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>IEDB reference file of ALL loci ( unique records only)</t>
+  </si>
+  <si>
+    <t>used for hlR package, please DON'T MODFIFY or REMOVE it</t>
+  </si>
+  <si>
+    <t>hla</t>
+  </si>
+  <si>
+    <t>all of .csv file</t>
+  </si>
+  <si>
+    <t>reference table to prep data for hla-graph-database</t>
+  </si>
+  <si>
+    <t>aurau_test</t>
+  </si>
+  <si>
+    <t>test data tables for graph database with aurau, it will be removed aftre testing is done</t>
   </si>
 </sst>
 </file>
@@ -501,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D58D4F-E4E0-7B4B-B6D6-376651DC16AF}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,6 +562,9 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -558,6 +579,9 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -572,6 +596,9 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -724,6 +751,25 @@
       </c>
       <c r="E13" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ReadMe.xlsx
+++ b/ReadMe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzhan50/projects/public-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634FE4C1-2A58-C146-922C-CCD8741517E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E914FE-3CE3-9F46-90FE-54F46370E2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="2820" windowWidth="28040" windowHeight="17440" xr2:uid="{8256766D-D95C-BC49-BB42-44E70E964C3B}"/>
+    <workbookView xWindow="3720" yWindow="3140" windowWidth="28040" windowHeight="17440" xr2:uid="{8256766D-D95C-BC49-BB42-44E70E964C3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>file source</t>
   </si>
@@ -75,60 +75,12 @@
     <t>reference file name</t>
   </si>
   <si>
-    <t>human_A_prepped.csv</t>
-  </si>
-  <si>
-    <t>human_B_prepped.csv</t>
-  </si>
-  <si>
-    <t>human_DPA1/2_prepped.csv</t>
-  </si>
-  <si>
-    <t>human_DPB1/2_prepped.csv</t>
-  </si>
-  <si>
-    <t>human_DQA1/2_prepped.csv</t>
-  </si>
-  <si>
-    <t>human_DRA_prepped.csv</t>
-  </si>
-  <si>
-    <t>human_DRB1_prepped.csv</t>
-  </si>
-  <si>
-    <t>human_DRB345_prepped.csv</t>
-  </si>
-  <si>
     <t>human_all.csv</t>
   </si>
   <si>
     <t>note</t>
   </si>
   <si>
-    <t>IEDB reference file of A locus</t>
-  </si>
-  <si>
-    <t>IEDB reference file of B locus</t>
-  </si>
-  <si>
-    <t>IEDB reference file of DPA locus</t>
-  </si>
-  <si>
-    <t>IEDB reference file of DPB locus</t>
-  </si>
-  <si>
-    <t>IEDB reference file of DQA locus</t>
-  </si>
-  <si>
-    <t>IEDB reference file of DRA locus</t>
-  </si>
-  <si>
-    <t>IEDB reference file of DRB1 locus</t>
-  </si>
-  <si>
-    <t>IEDB reference file of DRB345 locus</t>
-  </si>
-  <si>
     <t>IEDB reference file of ALL loci ( unique records only)</t>
   </si>
   <si>
@@ -148,6 +100,15 @@
   </si>
   <si>
     <t>test data tables for graph database with aurau, it will be removed aftre testing is done</t>
+  </si>
+  <si>
+    <t>IPD_IMGT-HLA epitopR/ref.R</t>
+  </si>
+  <si>
+    <t>IEDB/old</t>
+  </si>
+  <si>
+    <t>IEDB reference files, old version</t>
   </si>
 </sst>
 </file>
@@ -519,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D58D4F-E4E0-7B4B-B6D6-376651DC16AF}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -563,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -580,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -597,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -608,21 +569,21 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -636,140 +597,21 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -777,15 +619,8 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{D6D0193D-9A46-C44E-8F15-2553939925B7}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{510C24F2-1A1A-6C41-AE65-26C6912F2C50}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{6959B98F-7D7D-3D48-B30A-C3AFF31E1BF5}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{21A6BE94-6DF1-5346-AA58-5663BF6AA25B}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{3FCCCDF4-50F4-934F-ABF1-00DB1A78087B}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{88D7A196-C1F4-814E-8538-10A36EAA4CF3}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{7B2020E8-510A-CC4D-9895-4EBAC00C9C76}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{25C1B3CE-EBC2-174E-A1DF-B9448BD0378E}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{89038A69-E35A-F64A-A28D-DC1AD151A70A}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{83E13B5B-B934-EB4B-97C9-D52EC0EFC17E}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{BFA1644F-0DBF-564F-9DC2-871AA8B3D0B2}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{88934BD1-FDC2-7045-8057-3ACE07545A1E}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{3FCCCDF4-50F4-934F-ABF1-00DB1A78087B}"/>
+    <hyperlink ref="C5" r:id="rId5" display="IPD_IMGT-HLA" xr:uid="{88934BD1-FDC2-7045-8057-3ACE07545A1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ReadMe.xlsx
+++ b/ReadMe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzhan50/projects/public-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzhan50/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E914FE-3CE3-9F46-90FE-54F46370E2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048532C5-7D1A-AA4E-A206-A8F847D6557B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3140" windowWidth="28040" windowHeight="17440" xr2:uid="{8256766D-D95C-BC49-BB42-44E70E964C3B}"/>
+    <workbookView xWindow="12500" yWindow="8760" windowWidth="26060" windowHeight="12840" xr2:uid="{8256766D-D95C-BC49-BB42-44E70E964C3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>IEDB reference file of ALL loci ( unique records only)</t>
   </si>
   <si>
-    <t>used for hlR package, please DON'T MODFIFY or REMOVE it</t>
-  </si>
-  <si>
     <t>hla</t>
   </si>
   <si>
@@ -109,13 +106,16 @@
   </si>
   <si>
     <t>IEDB reference files, old version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">used for hlR package, ImputeHaplo(), please DON'T MODFIFY or REMOVE it. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,6 +135,13 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,10 +168,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -483,7 +491,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,8 +531,8 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -540,8 +548,8 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -557,8 +565,8 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -569,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -580,10 +588,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -592,26 +600,26 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
